--- a/Titus/Gurobi code/Final/Input/K-Woensdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/K-Woensdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEFE01BE-F649-42DD-8224-BF17E1E538A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C7E4AAF-EDA6-4C6C-A352-2E62F35CF93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{6E9FFF3B-88F5-4A40-A6D8-FC398ED33D07}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{35009BF3-C9D2-4CFD-BC7C-756661330CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Wednesday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AC1C99-424A-40C8-AEC0-29C2DCE946C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC3780-1BBD-4EF8-84EB-20A0C44AD2E7}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,7 +480,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>3864.5683413518418</v>
+        <v>3864</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>3239.991639719221</v>
+        <v>3240</v>
       </c>
       <c r="C2">
-        <v>2068.910324158056</v>
+        <v>2070</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3552.2799905355309</v>
+        <v>3552</v>
       </c>
       <c r="C3">
-        <v>2576.3788942345609</v>
+        <v>2577</v>
       </c>
       <c r="D3">
-        <v>2459.270762678444</v>
+        <v>2460</v>
       </c>
       <c r="E3">
-        <v>2186.0184557141729</v>
+        <v>2187</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>2342.1626311223281</v>
+        <v>2343</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -600,13 +600,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>2615.4149380866002</v>
+        <v>2616</v>
       </c>
       <c r="C7">
-        <v>2537.3428503825221</v>
+        <v>2538</v>
       </c>
       <c r="D7">
-        <v>2498.3068065304828</v>
+        <v>2499</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2849.631201198833</v>
+        <v>2850</v>
       </c>
       <c r="C8">
-        <v>2732.5230696427161</v>
+        <v>2733</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>2810.5951573467942</v>
+        <v>2811</v>
       </c>
       <c r="C10">
-        <v>1990.8382364539791</v>
+        <v>1992</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>2537.3428503825221</v>
+        <v>2538</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>2498.3068065304828</v>
+        <v>2499</v>
       </c>
       <c r="C13">
-        <v>2068.910324158056</v>
+        <v>2070</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3200.9555958671822</v>
+        <v>3201</v>
       </c>
       <c r="C14">
-        <v>2459.270762678444</v>
+        <v>2460</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2381.1986749743669</v>
+        <v>2382</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2186.0184557141729</v>
+        <v>2187</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>2186.0184557141729</v>
+        <v>2187</v>
       </c>
       <c r="C17">
-        <v>1990.8382364539791</v>
+        <v>1992</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>2654.450981938639</v>
+        <v>2655</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>3357.0997712753369</v>
+        <v>3357</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>3005.7753766069882</v>
+        <v>3006</v>
       </c>
       <c r="C22">
-        <v>2498.3068065304828</v>
+        <v>2499</v>
       </c>
       <c r="D22">
-        <v>2264.09054341825</v>
+        <v>2265</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>2615.4149380866002</v>
+        <v>2616</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>2732.5230696427161</v>
+        <v>2733</v>
       </c>
       <c r="C25">
-        <v>2303.1265872702888</v>
+        <v>2304</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>2732.5230696427161</v>
+        <v>2733</v>
       </c>
       <c r="C27">
-        <v>2576.3788942345609</v>
+        <v>2577</v>
       </c>
       <c r="D27">
-        <v>2654.450981938639</v>
+        <v>2655</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>2693.4870257906769</v>
+        <v>2694</v>
       </c>
       <c r="C28">
-        <v>2225.0544995662121</v>
+        <v>2226</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>2849.631201198833</v>
+        <v>2850</v>
       </c>
       <c r="C29">
         <v>0</v>
